--- a/data/raw/guadua_leaf_raw.xlsx
+++ b/data/raw/guadua_leaf_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elkam\Documents\Guadua_leaf_project\guadua_leaf\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21536613-9D85-4FFB-850E-5FBB73E0970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6AD3AE-70AB-492E-A3C1-825A21B28F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24210" windowHeight="12750" xr2:uid="{12698EE7-FEED-440C-9262-63C944C8A776}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12698EE7-FEED-440C-9262-63C944C8A776}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,12 +422,6 @@
     <t>G_aff_trinii</t>
   </si>
   <si>
-    <t>ab_papillae_long_cells_stomatal</t>
-  </si>
-  <si>
-    <t>ab_papillae_long_cells_interstomatal</t>
-  </si>
-  <si>
     <t>ab_prickle</t>
   </si>
   <si>
@@ -468,12 +462,6 @@
   </si>
   <si>
     <t>ad_stomata_freq</t>
-  </si>
-  <si>
-    <t>ad_papillae_long_cells_stomatal</t>
-  </si>
-  <si>
-    <t>ad_papillae_long_cells_interstomatal</t>
   </si>
   <si>
     <t>ad_papillae_overarch</t>
@@ -837,6 +825,18 @@
   </si>
   <si>
     <t>G_trinii_Clark_and_Oliveira_914</t>
+  </si>
+  <si>
+    <t>ab_simple_papillae_long_cells_stomatal</t>
+  </si>
+  <si>
+    <t>ab_simple_papillae_long_cells_interstomatal</t>
+  </si>
+  <si>
+    <t>ad_simple_papillae_long_cells_stomatal</t>
+  </si>
+  <si>
+    <t>ad_simple_papillae_long_cells_interstomatal</t>
   </si>
 </sst>
 </file>
@@ -1400,9 +1400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7BEC1-CFD1-4507-9809-E45818403D63}">
   <dimension ref="A1:BG154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,165 +1437,165 @@
         <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BE1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BF1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BG1" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>68</v>
@@ -1613,7 +1613,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>46</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>46</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>46</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>79</v>
@@ -2508,7 +2508,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>74</v>
@@ -2687,7 +2687,7 @@
         <v>46</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>79</v>
@@ -3045,7 +3045,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>79</v>
@@ -3224,7 +3224,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>46</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>68</v>
@@ -3940,7 +3940,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>68</v>
@@ -4477,7 +4477,7 @@
         <v>46</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>46</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>78</v>
@@ -5014,7 +5014,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>78</v>
@@ -6267,7 +6267,7 @@
         <v>46</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>78</v>
@@ -6446,7 +6446,7 @@
         <v>46</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>78</v>
@@ -6625,7 +6625,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>46</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>46</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -7520,7 +7520,7 @@
         <v>46</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>69</v>
@@ -7699,7 +7699,7 @@
         <v>46</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -7878,7 +7878,7 @@
         <v>46</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>69</v>
@@ -8057,7 +8057,7 @@
         <v>46</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>69</v>
@@ -8236,7 +8236,7 @@
         <v>46</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>69</v>
@@ -8415,7 +8415,7 @@
         <v>46</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>72</v>
@@ -8594,7 +8594,7 @@
         <v>46</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>76</v>
@@ -8773,7 +8773,7 @@
         <v>46</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>76</v>
@@ -8952,7 +8952,7 @@
         <v>46</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>46</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -9489,7 +9489,7 @@
         <v>47</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>77</v>
@@ -9668,7 +9668,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>69</v>
@@ -9847,7 +9847,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
@@ -10008,7 +10008,7 @@
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>69</v>
@@ -10026,7 +10026,7 @@
         <v>47</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>77</v>
@@ -10205,7 +10205,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -10366,7 +10366,7 @@
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>82</v>
@@ -10384,7 +10384,7 @@
         <v>47</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -10545,7 +10545,7 @@
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>77</v>
@@ -10563,7 +10563,7 @@
         <v>47</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
@@ -10742,7 +10742,7 @@
         <v>47</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>69</v>
@@ -10921,7 +10921,7 @@
         <v>47</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -11082,7 +11082,7 @@
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>80</v>
@@ -11100,7 +11100,7 @@
         <v>47</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -11261,7 +11261,7 @@
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>80</v>
@@ -11279,7 +11279,7 @@
         <v>47</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H56" s="5">
         <v>0</v>
@@ -11458,7 +11458,7 @@
         <v>46</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -11637,7 +11637,7 @@
         <v>47</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>77</v>
@@ -11816,7 +11816,7 @@
         <v>47</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>77</v>
@@ -11995,7 +11995,7 @@
         <v>47</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -12156,7 +12156,7 @@
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>68</v>
@@ -12174,7 +12174,7 @@
         <v>47</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -12353,7 +12353,7 @@
         <v>47</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>68</v>
@@ -12532,7 +12532,7 @@
         <v>47</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -12693,7 +12693,7 @@
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>68</v>
@@ -12711,7 +12711,7 @@
         <v>47</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>68</v>
@@ -12890,7 +12890,7 @@
         <v>47</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -13069,7 +13069,7 @@
         <v>47</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -13230,7 +13230,7 @@
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>68</v>
@@ -13248,7 +13248,7 @@
         <v>47</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -13427,7 +13427,7 @@
         <v>47</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -13588,7 +13588,7 @@
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>75</v>
@@ -13606,7 +13606,7 @@
         <v>47</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -13767,7 +13767,7 @@
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>86</v>
@@ -13785,7 +13785,7 @@
         <v>46</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -13964,7 +13964,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -14143,7 +14143,7 @@
         <v>46</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>73</v>
@@ -14322,7 +14322,7 @@
         <v>46</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -14483,7 +14483,7 @@
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>79</v>
@@ -14501,7 +14501,7 @@
         <v>46</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>79</v>
@@ -14680,7 +14680,7 @@
         <v>46</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -14841,7 +14841,7 @@
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>80</v>
@@ -14859,7 +14859,7 @@
         <v>47</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -15020,7 +15020,7 @@
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>80</v>
@@ -15038,7 +15038,7 @@
         <v>47</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>78</v>
@@ -15217,7 +15217,7 @@
         <v>47</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -15378,7 +15378,7 @@
     </row>
     <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>78</v>
@@ -15396,7 +15396,7 @@
         <v>47</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -15575,7 +15575,7 @@
         <v>47</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -15754,7 +15754,7 @@
         <v>46</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -15915,7 +15915,7 @@
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>69</v>
@@ -15933,7 +15933,7 @@
         <v>46</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -16094,10 +16094,10 @@
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>94</v>
@@ -16112,7 +16112,7 @@
         <v>46</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>69</v>
@@ -16452,7 +16452,7 @@
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>68</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>69</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>71</v>
@@ -17347,7 +17347,7 @@
     </row>
     <row r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>69</v>
@@ -18242,7 +18242,7 @@
     </row>
     <row r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>72</v>
@@ -19316,7 +19316,7 @@
     </row>
     <row r="101" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>73</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>74</v>
@@ -19674,7 +19674,7 @@
     </row>
     <row r="103" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>69</v>
@@ -19692,7 +19692,7 @@
         <v>46</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -19853,7 +19853,7 @@
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>72</v>
@@ -19871,7 +19871,7 @@
         <v>46</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -20032,7 +20032,7 @@
     </row>
     <row r="105" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>72</v>
@@ -20050,7 +20050,7 @@
         <v>46</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -20229,7 +20229,7 @@
         <v>46</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -20408,7 +20408,7 @@
         <v>46</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -20569,7 +20569,7 @@
     </row>
     <row r="108" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>69</v>
@@ -20587,7 +20587,7 @@
         <v>47</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -20766,7 +20766,7 @@
         <v>47</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -20945,7 +20945,7 @@
         <v>47</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -21106,7 +21106,7 @@
     </row>
     <row r="111" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>80</v>
@@ -21124,7 +21124,7 @@
         <v>47</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="112" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>78</v>
@@ -21303,7 +21303,7 @@
         <v>47</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -21464,7 +21464,7 @@
     </row>
     <row r="113" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>80</v>
@@ -21482,7 +21482,7 @@
         <v>47</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -21643,7 +21643,7 @@
     </row>
     <row r="114" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>69</v>
@@ -21661,7 +21661,7 @@
         <v>46</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>46</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -22019,7 +22019,7 @@
         <v>46</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -22198,7 +22198,7 @@
         <v>46</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -22359,7 +22359,7 @@
     </row>
     <row r="118" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>69</v>
@@ -22377,7 +22377,7 @@
         <v>46</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -22538,7 +22538,7 @@
     </row>
     <row r="119" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>69</v>
@@ -22556,7 +22556,7 @@
         <v>46</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -22717,7 +22717,7 @@
     </row>
     <row r="120" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>69</v>
@@ -22735,7 +22735,7 @@
         <v>46</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -22896,7 +22896,7 @@
     </row>
     <row r="121" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>69</v>
@@ -22914,7 +22914,7 @@
         <v>46</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -23093,7 +23093,7 @@
         <v>46</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>46</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -23451,7 +23451,7 @@
         <v>46</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>46</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -23791,7 +23791,7 @@
     </row>
     <row r="126" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>69</v>
@@ -23809,7 +23809,7 @@
         <v>46</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -23988,7 +23988,7 @@
         <v>46</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -24167,7 +24167,7 @@
         <v>46</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -24328,7 +24328,7 @@
     </row>
     <row r="129" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>81</v>
@@ -24346,7 +24346,7 @@
         <v>46</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>46</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -24686,7 +24686,7 @@
     </row>
     <row r="131" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>68</v>
@@ -24704,7 +24704,7 @@
         <v>46</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>46</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>46</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -25223,7 +25223,7 @@
     </row>
     <row r="134" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B134" s="12" t="s">
         <v>68</v>
@@ -25241,7 +25241,7 @@
         <v>46</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -25420,7 +25420,7 @@
         <v>46</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>46</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -25778,7 +25778,7 @@
         <v>46</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -25939,7 +25939,7 @@
     </row>
     <row r="138" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>77</v>
@@ -25948,7 +25948,7 @@
         <v>94</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>100</v>
@@ -26118,7 +26118,7 @@
     </row>
     <row r="139" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>77</v>
@@ -26127,7 +26127,7 @@
         <v>94</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>100</v>
@@ -26297,7 +26297,7 @@
     </row>
     <row r="140" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>77</v>
@@ -26306,7 +26306,7 @@
         <v>94</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>100</v>
@@ -26673,7 +26673,7 @@
         <v>46</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -26834,7 +26834,7 @@
     </row>
     <row r="143" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>80</v>
@@ -26852,7 +26852,7 @@
         <v>46</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -27013,7 +27013,7 @@
     </row>
     <row r="144" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>72</v>
@@ -27031,7 +27031,7 @@
         <v>46</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -27210,7 +27210,7 @@
         <v>46</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -27389,7 +27389,7 @@
         <v>46</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -27550,7 +27550,7 @@
     </row>
     <row r="147" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B147" s="12" t="s">
         <v>80</v>
@@ -27568,7 +27568,7 @@
         <v>46</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -27729,7 +27729,7 @@
     </row>
     <row r="148" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B148" s="12" t="s">
         <v>77</v>
@@ -27747,7 +27747,7 @@
         <v>46</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -27908,7 +27908,7 @@
     </row>
     <row r="149" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>80</v>
@@ -27926,7 +27926,7 @@
         <v>46</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -28087,7 +28087,7 @@
     </row>
     <row r="150" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>69</v>
@@ -28096,7 +28096,7 @@
         <v>94</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E150" s="11" t="s">
         <v>101</v>
@@ -28105,7 +28105,7 @@
         <v>46</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>46</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H151" s="5">
         <v>1</v>
@@ -28445,7 +28445,7 @@
     </row>
     <row r="152" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B152" s="12" t="s">
         <v>69</v>
@@ -28454,7 +28454,7 @@
         <v>94</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E152" s="11" t="s">
         <v>100</v>
@@ -28624,7 +28624,7 @@
     </row>
     <row r="153" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B153" s="12" t="s">
         <v>69</v>
@@ -28633,7 +28633,7 @@
         <v>94</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>100</v>
@@ -28803,7 +28803,7 @@
     </row>
     <row r="154" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B154" s="12" t="s">
         <v>72</v>
@@ -28812,7 +28812,7 @@
         <v>94</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>102</v>
@@ -28821,7 +28821,7 @@
         <v>46</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H154">
         <v>0</v>
